--- a/Tietokannat -kurssi cd_tietokanta/Datan syöttölauseet.xlsx
+++ b/Tietokannat -kurssi cd_tietokanta/Datan syöttölauseet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage\homes\H3298\Dox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\H3298\repos\Database-Practise\Tietokannat -kurssi cd_tietokanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
   <si>
     <t>Henkilo</t>
   </si>
@@ -287,18 +287,12 @@
     <t>tubepath</t>
   </si>
   <si>
-    <t>fdsaf</t>
-  </si>
-  <si>
     <t>kuvapath</t>
   </si>
   <si>
     <t xml:space="preserve">insert into cd (nimi, yhtio_avain, vuosi_avain, kuvapath) values( </t>
   </si>
   <si>
-    <t>fdsa</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -324,6 +318,51 @@
   </si>
   <si>
     <t xml:space="preserve">insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( </t>
+  </si>
+  <si>
+    <t>Be Quick or Be Dead</t>
+  </si>
+  <si>
+    <t>Iron Maiden</t>
+  </si>
+  <si>
+    <t>From Here to Eternity</t>
+  </si>
+  <si>
+    <t>Afraid to Shoot Strangers</t>
+  </si>
+  <si>
+    <t>Fear Is the Key</t>
+  </si>
+  <si>
+    <t>Childhood's End</t>
+  </si>
+  <si>
+    <t>Wasting Love</t>
+  </si>
+  <si>
+    <t>Fear of The Dark</t>
+  </si>
+  <si>
+    <t>The Fugitive</t>
+  </si>
+  <si>
+    <t>Chains of Misery</t>
+  </si>
+  <si>
+    <t>The Apparition</t>
+  </si>
+  <si>
+    <t>Judas Be My Guide</t>
+  </si>
+  <si>
+    <t>Weekend Warrior</t>
+  </si>
+  <si>
+    <t>Fear of the Dark</t>
+  </si>
+  <si>
+    <t>Heavy Metal</t>
   </si>
 </sst>
 </file>
@@ -1057,14 +1096,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" customWidth="1"/>
@@ -1083,10 +1124,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,9 +1143,6 @@
       <c r="D2">
         <v>1986</v>
       </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
       <c r="F2" t="str">
         <f>"'"&amp;B2&amp;"', "</f>
         <v xml:space="preserve">'The Final Countdown', </v>
@@ -1119,29 +1157,37 @@
       </c>
       <c r="I2" t="str">
         <f>",'"&amp;E2&amp;"'"</f>
-        <v>,'fdsa'</v>
+        <v>,''</v>
       </c>
       <c r="J2" t="str">
         <f>$F$1 &amp; F2 &amp; G2 &amp; H2 &amp;  I2 &amp;");"</f>
-        <v>insert into cd (nimi, yhtio_avain, vuosi_avain, kuvapath) values( 'The Final Countdown', (select avain from yhtio where nimi = 'Epic Records'), (select avain from vuosi where vuosi = '1986'),'fdsa');</v>
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain, kuvapath) values( 'The Final Countdown', (select avain from yhtio where nimi = 'Epic Records'), (select avain from vuosi where vuosi = '1986'),'');</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>1992</v>
+      </c>
       <c r="F3" t="str">
         <f>"'"&amp;B3&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <v xml:space="preserve">'Fear of The Dark', </v>
       </c>
       <c r="G3" t="str">
         <f xml:space="preserve"> "(select avain from yhtio where nimi = '" &amp; C3 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from yhtio where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from yhtio where nimi = 'Epic Records'), </v>
       </c>
       <c r="H3" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D3 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I6" si="0">",'"&amp;E3&amp;"'"</f>
@@ -1149,7 +1195,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J6" si="1">$F$1 &amp; F3 &amp; G3 &amp; H3 &amp;  I3 &amp;");"</f>
-        <v>insert into cd (nimi, yhtio_avain, vuosi_avain, kuvapath) values( '', (select avain from yhtio where nimi = ''), (select avain from vuosi where vuosi = ''),'');</v>
+        <v>insert into cd (nimi, yhtio_avain, vuosi_avain, kuvapath) values( 'Fear of The Dark', (select avain from yhtio where nimi = 'Epic Records'), (select avain from vuosi where vuosi = '1992'),'');</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,10 +1550,10 @@
         <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1519,524 +1565,1470 @@
         <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C25">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E25">
-        <v>1986</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
+        <v>1992</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="str">
-        <f>"'"&amp;B25&amp;"', "</f>
-        <v xml:space="preserve">'The Final Countdown', </v>
+        <f t="shared" ref="H25:I29" si="5">"'"&amp;B25&amp;"', "</f>
+        <v xml:space="preserve">'Be Quick or Be Dead', </v>
       </c>
       <c r="I25" t="str">
-        <f>"'"&amp;C25&amp;"', "</f>
-        <v xml:space="preserve">'311', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'204', </v>
       </c>
       <c r="J25" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D25 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = 'Europe'), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K25" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E25 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '1986')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L25" t="str">
         <f>",'"&amp;F25&amp;"'"</f>
-        <v>,'fdsaf'</v>
+        <v>,''</v>
       </c>
       <c r="M25" t="str">
         <f>",'"&amp;G25&amp;"'"</f>
-        <v>,'2'</v>
+        <v>,'1'</v>
       </c>
       <c r="N25" t="str">
         <f>$H$24&amp; H25 &amp; I25 &amp; J25 &amp; K25 &amp; L25 &amp; M25 &amp; ");"</f>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'The Final Countdown', '311', (select avain from esittaja where nimi = 'Europe'), (select avain from vuosi where vuosi = '1986'),'fdsaf','2');</v>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Be Quick or Be Dead', '204', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','1');</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>218</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26">
+        <v>1992</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
       <c r="H26" t="str">
-        <f>"'"&amp;B26&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'From Here to Eternity', </v>
       </c>
       <c r="I26" t="str">
-        <f>"'"&amp;C26&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'218', </v>
       </c>
       <c r="J26" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D26 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K26" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E26 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L26" t="str">
         <f>",'"&amp;F26&amp;"'"</f>
         <v>,''</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26:M29" si="5">",'"&amp;G26&amp;"'"</f>
-        <v>,''</v>
+        <f t="shared" ref="M26:M29" si="6">",'"&amp;G26&amp;"'"</f>
+        <v>,'2'</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ref="N26:N29" si="6">$H$24&amp; H26 &amp; I26 &amp; J26 &amp; K26 &amp; L26 &amp; M26 &amp; ");"</f>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''),'','');</v>
+        <f t="shared" ref="N26:N29" si="7">$H$24&amp; H26 &amp; I26 &amp; J26 &amp; K26 &amp; L26 &amp; M26 &amp; ");"</f>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'From Here to Eternity', '218', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','2');</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27">
+        <v>1992</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
       <c r="H27" t="str">
-        <f>"'"&amp;B27&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'Afraid to Shoot Strangers', </v>
       </c>
       <c r="I27" t="str">
-        <f>"'"&amp;C27&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'416', </v>
       </c>
       <c r="J27" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D27 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K27" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E27 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L27" t="str">
         <f>",'"&amp;F27&amp;"'"</f>
         <v>,''</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="5"/>
-        <v>,''</v>
+        <f t="shared" si="6"/>
+        <v>,'3'</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''),'','');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Afraid to Shoot Strangers', '416', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','3');</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>335</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28">
+        <v>1992</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
       <c r="H28" t="str">
-        <f>"'"&amp;B28&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'Fear Is the Key', </v>
       </c>
       <c r="I28" t="str">
-        <f>"'"&amp;C28&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'335', </v>
       </c>
       <c r="J28" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D28 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K28" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E28 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L28" t="str">
         <f>",'"&amp;F28&amp;"'"</f>
         <v>,''</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="5"/>
-        <v>,''</v>
+        <f t="shared" si="6"/>
+        <v>,'4'</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''),'','');</v>
+        <f t="shared" si="7"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Fear Is the Key', '335', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','4');</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29">
+        <v>1992</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
       <c r="H29" t="str">
-        <f>"'"&amp;B29&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'Childhood's End', </v>
       </c>
       <c r="I29" t="str">
-        <f>"'"&amp;C29&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">'280', </v>
       </c>
       <c r="J29" t="str">
         <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D29 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from esittaja where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K29" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E29 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L29" t="str">
         <f>",'"&amp;F29&amp;"'"</f>
         <v>,''</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>,'5'</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Childhood's End', '280', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','5');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>350</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>1992</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30" si="8">"'"&amp;B30&amp;"', "</f>
+        <v xml:space="preserve">'Wasting Love', </v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ref="I30" si="9">"'"&amp;C30&amp;"', "</f>
+        <v xml:space="preserve">'350', </v>
+      </c>
+      <c r="J30" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D30 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K30" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E30 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L30" t="str">
+        <f>",'"&amp;F30&amp;"'"</f>
         <v>,''</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( '', '', (select avain from esittaja where nimi = ''), (select avain from vuosi where vuosi = ''),'','');</v>
+      <c r="M30" t="str">
+        <f t="shared" ref="M30" si="10">",'"&amp;G30&amp;"'"</f>
+        <v>,'6'</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" ref="N30" si="11">$H$24&amp; H30 &amp; I30 &amp; J30 &amp; K30 &amp; L30 &amp; M30 &amp; ");"</f>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Wasting Love', '350', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','6');</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31">
+        <v>294</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31">
+        <v>1992</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ref="H31:H32" si="12">"'"&amp;B31&amp;"', "</f>
+        <v xml:space="preserve">'The Fugitive', </v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ref="I31:I32" si="13">"'"&amp;C31&amp;"', "</f>
+        <v xml:space="preserve">'294', </v>
+      </c>
+      <c r="J31" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D31 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K31" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E31 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L31" t="str">
+        <f>",'"&amp;F31&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ref="M31:M32" si="14">",'"&amp;G31&amp;"'"</f>
+        <v>,'7'</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" ref="N31:N32" si="15">$H$24&amp; H31 &amp; I31 &amp; J31 &amp; K31 &amp; L31 &amp; M31 &amp; ");"</f>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'The Fugitive', '294', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','7');</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>1992</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">'Chains of Misery', </v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">'217', </v>
+      </c>
+      <c r="J32" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D32 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K32" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E32 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L32" t="str">
+        <f>",'"&amp;F32&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="14"/>
+        <v>,'8'</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Chains of Misery', '217', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','8');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <v>234</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <v>1992</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ref="H33" si="16">"'"&amp;B33&amp;"', "</f>
+        <v xml:space="preserve">'The Apparition', </v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ref="I33" si="17">"'"&amp;C33&amp;"', "</f>
+        <v xml:space="preserve">'234', </v>
+      </c>
+      <c r="J33" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D33 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K33" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E33 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L33" t="str">
+        <f>",'"&amp;F33&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ref="M33" si="18">",'"&amp;G33&amp;"'"</f>
+        <v>,'9'</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" ref="N33" si="19">$H$24&amp; H33 &amp; I33 &amp; J33 &amp; K33 &amp; L33 &amp; M33 &amp; ");"</f>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'The Apparition', '234', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','9');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>188</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34">
+        <v>1992</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ref="H34" si="20">"'"&amp;B34&amp;"', "</f>
+        <v xml:space="preserve">'Judas Be My Guide', </v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ref="I34" si="21">"'"&amp;C34&amp;"', "</f>
+        <v xml:space="preserve">'188', </v>
+      </c>
+      <c r="J34" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D34 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K34" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E34 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L34" t="str">
+        <f>",'"&amp;F34&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ref="M34" si="22">",'"&amp;G34&amp;"'"</f>
+        <v>,'10'</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ref="N34:N36" si="23">$H$24&amp; H34 &amp; I34 &amp; J34 &amp; K34 &amp; L34 &amp; M34 &amp; ");"</f>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Judas Be My Guide', '188', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','10');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35">
+        <v>1992</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ref="H35:H36" si="24">"'"&amp;B35&amp;"', "</f>
+        <v xml:space="preserve">'Weekend Warrior', </v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" ref="I35:I36" si="25">"'"&amp;C35&amp;"', "</f>
+        <v xml:space="preserve">'339', </v>
+      </c>
+      <c r="J35" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D35 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K35" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E35 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L35" t="str">
+        <f>",'"&amp;F35&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:M36" si="26">",'"&amp;G35&amp;"'"</f>
+        <v>,'11'</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="23"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Weekend Warrior', '339', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','11');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>438</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36">
+        <v>1992</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">'Fear of the Dark', </v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">'438', </v>
+      </c>
+      <c r="J36" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D36 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
+      </c>
+      <c r="K36" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E36 &amp; "')"</f>
+        <v>(select avain from vuosi where vuosi = '1992')</v>
+      </c>
+      <c r="L36" t="str">
+        <f>",'"&amp;F36&amp;"'"</f>
+        <v>,''</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="26"/>
+        <v>,'12'</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="23"/>
+        <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Fear of the Dark', '438', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','12');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C32" t="str">
-        <f>"'"&amp;B32&amp;"'"</f>
+      <c r="C39" t="str">
+        <f>"'"&amp;B39&amp;"'"</f>
         <v>'Hard Rock'</v>
       </c>
-      <c r="D32" t="str">
-        <f>$C$31&amp;C32&amp; ");"</f>
+      <c r="D39" t="str">
+        <f>$C$38&amp;C39&amp; ");"</f>
         <v>insert into genre (nimi) values( 'Hard Rock');</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="str">
+        <f>"'"&amp;B40&amp;"'"</f>
+        <v>'Heavy Metal'</v>
+      </c>
+      <c r="D40" t="str">
+        <f>$C$38&amp;C40&amp; ");"</f>
+        <v>insert into genre (nimi) values( 'Heavy Metal');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="D35">
+      <c r="D43">
         <v>1953</v>
       </c>
-      <c r="E35" t="str">
-        <f>"'"&amp;B35&amp;"', "</f>
+      <c r="E43" t="str">
+        <f>"'"&amp;B43&amp;"', "</f>
         <v xml:space="preserve">'Epic Records', </v>
       </c>
-      <c r="F35" t="str">
-        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C35 &amp; "'), "</f>
+      <c r="F43" t="str">
+        <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C43 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from maa where nimi = 'United States of America'), </v>
       </c>
-      <c r="G35" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D35 &amp; "')"</f>
+      <c r="G43" t="str">
+        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D43 &amp; "')"</f>
         <v>(select avain from vuosi where vuosi = '1953')</v>
       </c>
-      <c r="H35" t="str">
-        <f>$E$34&amp; E35 &amp; F35 &amp; G35 &amp; ");"</f>
+      <c r="H43" t="str">
+        <f>$E$42&amp; E43 &amp; F43 &amp; G43 &amp; ");"</f>
         <v>insert into yhtio (nimi, maa_avain, vuosi_avain) values( 'Epic Records', (select avain from maa where nimi = 'United States of America'), (select avain from vuosi where vuosi = '1953'));</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B46" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C46" t="str">
+        <f>""&amp;B25&amp;""</f>
+        <v>Be Quick or Be Dead</v>
+      </c>
+      <c r="D46" t="str">
+        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B46 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E46" t="str">
+        <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C46 &amp; "')"</f>
+        <v>(select avain from kappale where nimi = 'Be Quick or Be Dead')</v>
+      </c>
+      <c r="F46" t="str">
+        <f>$D$45&amp; D46 &amp; E46  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Be Quick or Be Dead'));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C47" t="str">
+        <f>""&amp;B26&amp;""</f>
+        <v>From Here to Eternity</v>
+      </c>
+      <c r="D47" t="str">
+        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B47 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E47" t="str">
+        <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C47 &amp; "')"</f>
+        <v>(select avain from kappale where nimi = 'From Here to Eternity')</v>
+      </c>
+      <c r="F47" t="str">
+        <f>$D$45&amp; D47 &amp; E47  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'From Here to Eternity'));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C48" t="str">
+        <f>""&amp;B27&amp;""</f>
+        <v>Afraid to Shoot Strangers</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" ref="D48:D55" si="27" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B48 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ref="E48:E55" si="28" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C48 &amp; "')"</f>
+        <v>(select avain from kappale where nimi = 'Afraid to Shoot Strangers')</v>
+      </c>
+      <c r="F48" t="str">
+        <f>$D$45&amp; D48 &amp; E48  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Afraid to Shoot Strangers'));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C49" t="str">
+        <f>""&amp;B28&amp;""</f>
+        <v>Fear Is the Key</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'Fear Is the Key')</v>
+      </c>
+      <c r="F49" t="str">
+        <f>$D$45&amp; D49 &amp; E49  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Fear Is the Key'));</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C50" t="str">
+        <f>""&amp;B29&amp;""</f>
+        <v>Childhood's End</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'Childhood's End')</v>
+      </c>
+      <c r="F50" t="str">
+        <f>$D$45&amp; D50 &amp; E50  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Childhood's End'));</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C51" t="str">
+        <f>""&amp;B30&amp;""</f>
+        <v>Wasting Love</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'Wasting Love')</v>
+      </c>
+      <c r="F51" t="str">
+        <f>$D$45&amp; D51 &amp; E51  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Wasting Love'));</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C52" t="str">
+        <f>""&amp;B31&amp;""</f>
+        <v>The Fugitive</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'The Fugitive')</v>
+      </c>
+      <c r="F52" t="str">
+        <f>$D$45&amp; D52 &amp; E52  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'The Fugitive'));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C53" t="str">
+        <f>""&amp;B32&amp;""</f>
+        <v>Chains of Misery</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'Chains of Misery')</v>
+      </c>
+      <c r="F53" t="str">
+        <f>$D$45&amp; D53 &amp; E53  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Chains of Misery'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C54" t="str">
+        <f>""&amp;B33&amp;""</f>
+        <v>The Apparition</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'The Apparition')</v>
+      </c>
+      <c r="F54" t="str">
+        <f>$D$45&amp; D54 &amp; E54  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'The Apparition'));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C55" t="str">
+        <f>""&amp;B34&amp;""</f>
+        <v>Judas Be My Guide</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="28"/>
+        <v>(select avain from kappale where nimi = 'Judas Be My Guide')</v>
+      </c>
+      <c r="F55" t="str">
+        <f>$D$45&amp; D55 &amp; E55  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Judas Be My Guide'));</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C56" t="str">
+        <f>""&amp;B35&amp;""</f>
+        <v>Weekend Warrior</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56" si="29" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B56 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ref="E56" si="30" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C56 &amp; "')"</f>
+        <v>(select avain from kappale where nimi = 'Weekend Warrior')</v>
+      </c>
+      <c r="F56" t="str">
+        <f>$D$45&amp; D56 &amp; E56  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Weekend Warrior'));</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="str">
+        <f>""&amp;B3&amp;""</f>
+        <v>Fear of The Dark</v>
+      </c>
+      <c r="C57" t="str">
+        <f>""&amp;B36&amp;""</f>
+        <v>Fear of the Dark</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ref="D57" si="31" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B57 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ref="E57" si="32" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C57 &amp; "')"</f>
+        <v>(select avain from kappale where nimi = 'Fear of the Dark')</v>
+      </c>
+      <c r="F57" t="str">
+        <f>$D$45&amp; D57 &amp; E57  &amp; ");"</f>
+        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Fear of the Dark'));</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f>""&amp;B25&amp;""</f>
+        <v>Be Quick or Be Dead</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="str">
+        <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B60 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Be Quick or Be Dead'), </v>
+      </c>
+      <c r="E60" t="str">
+        <f xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C60 &amp; "')"</f>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F60" t="str">
+        <f>$D$59&amp; D60 &amp; E60 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Be Quick or Be Dead'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f>""&amp;B26&amp;""</f>
+        <v>From Here to Eternity</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ref="D61:D69" si="33" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B61 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'From Here to Eternity'), </v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ref="E61:E69" si="34" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C61 &amp; "')"</f>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F61" t="str">
+        <f>$D$59&amp; D61 &amp; E61 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'From Here to Eternity'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f>""&amp;B27&amp;""</f>
+        <v>Afraid to Shoot Strangers</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Afraid to Shoot Strangers'), </v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F62" t="str">
+        <f>$D$59&amp; D62 &amp; E62 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Afraid to Shoot Strangers'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f>""&amp;B28&amp;""</f>
+        <v>Fear Is the Key</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Fear Is the Key'), </v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F63" t="str">
+        <f>$D$59&amp; D63 &amp; E63 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Fear Is the Key'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f>""&amp;B29&amp;""</f>
+        <v>Childhood's End</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Childhood's End'), </v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F64" t="str">
+        <f>$D$59&amp; D64 &amp; E64 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Childhood's End'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f>""&amp;B30&amp;""</f>
+        <v>Wasting Love</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Wasting Love'), </v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F65" t="str">
+        <f>$D$59&amp; D65 &amp; E65 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Wasting Love'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f>""&amp;B31&amp;""</f>
+        <v>The Fugitive</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'The Fugitive'), </v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F66" t="str">
+        <f>$D$59&amp; D66 &amp; E66 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Fugitive'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f>""&amp;B32&amp;""</f>
+        <v>Chains of Misery</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Chains of Misery'), </v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F67" t="str">
+        <f>$D$59&amp; D67 &amp; E67 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Chains of Misery'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f>""&amp;B33&amp;""</f>
+        <v>The Apparition</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'The Apparition'), </v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F68" t="str">
+        <f>$D$59&amp; D68 &amp; E68 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Apparition'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f>""&amp;B34&amp;""</f>
+        <v>Judas Be My Guide</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Judas Be My Guide'), </v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="34"/>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F69" t="str">
+        <f>$D$59&amp; D69 &amp; E69 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Judas Be My Guide'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <f>""&amp;B35&amp;""</f>
+        <v>Weekend Warrior</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70" si="35" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B70 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Weekend Warrior'), </v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ref="E70" si="36" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C70 &amp; "')"</f>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F70" t="str">
+        <f>$D$59&amp; D70 &amp; E70 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Weekend Warrior'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f>""&amp;B36&amp;""</f>
+        <v>Fear of the Dark</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ref="D71" si="37" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B71 &amp; "'), "</f>
+        <v xml:space="preserve">(select avain from kappale where nimi = 'Fear of the Dark'), </v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71" si="38" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C71 &amp; "')"</f>
+        <v>(select avain from genre where nimi = 'Heavy Metal')</v>
+      </c>
+      <c r="F71" t="str">
+        <f>$D$59&amp; D71 &amp; E71 &amp; ");"</f>
+        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Fear of the Dark'), (select avain from genre where nimi = 'Heavy Metal'));</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="str">
         <f>""&amp;B2&amp;""</f>
         <v>The Final Countdown</v>
       </c>
-      <c r="C38" t="str">
-        <f>""&amp;B25&amp;""</f>
-        <v>The Final Countdown</v>
-      </c>
-      <c r="D38" t="str">
-        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B38 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from cd where nimi = 'The Final Countdown'), </v>
-      </c>
-      <c r="E38" t="str">
-        <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C38 &amp; "')"</f>
-        <v>(select avain from kappale where nimi = 'The Final Countdown')</v>
-      </c>
-      <c r="F38" t="str">
-        <f>$D$37&amp; D38 &amp; E38  &amp; ");"</f>
-        <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'The Final Countdown'), (select avain from kappale where nimi = 'The Final Countdown'));</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f>""&amp;B25&amp;""</f>
-        <v>The Final Countdown</v>
-      </c>
-      <c r="C41" t="str">
-        <f>""&amp;B32&amp;""</f>
-        <v>Hard Rock</v>
-      </c>
-      <c r="D41" t="str">
-        <f xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B41 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from kappale where nimi = 'The Final Countdown'), </v>
-      </c>
-      <c r="E41" t="str">
-        <f xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C41 &amp; "')"</f>
-        <v>(select avain from genre where nimi = 'Hard Rock')</v>
-      </c>
-      <c r="F41" t="str">
-        <f>$D$40&amp; D41 &amp; E41 &amp; ");"</f>
-        <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Final Countdown'), (select avain from genre where nimi = 'Hard Rock'));</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="str">
-        <f>""&amp;B2&amp;""</f>
-        <v>The Final Countdown</v>
-      </c>
-      <c r="C44" t="str">
+      <c r="C74" t="str">
         <f>""&amp;B18&amp;""</f>
         <v>Europe</v>
       </c>
-      <c r="D44" t="str">
-        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B44 &amp; "'), "</f>
+      <c r="D74" t="str">
+        <f xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B74 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from cd where nimi = 'The Final Countdown'), </v>
       </c>
-      <c r="E44" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; C44 &amp; "')"</f>
+      <c r="E74" t="str">
+        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; C74 &amp; "')"</f>
         <v>(select avain from esittaja where nimi = 'Europe')</v>
       </c>
-      <c r="F44" t="str">
-        <f>$D$43&amp; D44 &amp; E44 &amp; ");"</f>
+      <c r="F74" t="str">
+        <f>$D$73&amp; D74 &amp; E74 &amp; ");"</f>
         <v>insert into cd_esittaja (cd_avain, esittaja_avain) values( (select avain from cd where nimi = 'The Final Countdown'), (select avain from esittaja where nimi = 'Europe'));</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="C77" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47">
+      <c r="D77">
         <v>1</v>
       </c>
-      <c r="E47" t="str">
-        <f>"'"&amp;B47&amp;"', "</f>
+      <c r="E77" t="str">
+        <f>"'"&amp;B77&amp;"', "</f>
         <v xml:space="preserve">'janne', </v>
       </c>
-      <c r="F47" t="str">
-        <f>"'"&amp;C47&amp;"',"</f>
+      <c r="F77" t="str">
+        <f>"'"&amp;C77&amp;"',"</f>
         <v>'jannu',</v>
       </c>
-      <c r="G47" t="str">
-        <f>"'"&amp;D47&amp;"'"</f>
+      <c r="G77" t="str">
+        <f>"'"&amp;D77&amp;"'"</f>
         <v>'1'</v>
       </c>
-      <c r="H47" t="str">
-        <f>$E$46 &amp; E47 &amp; F47 &amp; G47 &amp; ");"</f>
+      <c r="H77" t="str">
+        <f>$E$76 &amp; E77 &amp; F77 &amp; G77 &amp; ");"</f>
         <v>insert into user (tunnus, salasana, tyyppi) values( 'janne', 'jannu','1');</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="E48" t="str">
-        <f>"'"&amp;B48&amp;"', "</f>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="E78" t="str">
+        <f>"'"&amp;B78&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" ref="F48:F51" si="7">"'"&amp;C48&amp;"',"</f>
+      <c r="F78" t="str">
+        <f t="shared" ref="F78:F81" si="39">"'"&amp;C78&amp;"',"</f>
         <v>'',</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" ref="G48:G51" si="8">"'"&amp;D48&amp;"'"</f>
+      <c r="G78" t="str">
+        <f t="shared" ref="G78:G81" si="40">"'"&amp;D78&amp;"'"</f>
         <v>''</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" ref="H48:H51" si="9">$E$46 &amp; E48 &amp; F48 &amp; G48 &amp; ");"</f>
+      <c r="H78" t="str">
+        <f t="shared" ref="H78:H81" si="41">$E$76 &amp; E78 &amp; F78 &amp; G78 &amp; ");"</f>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="E49" t="str">
-        <f>"'"&amp;B49&amp;"', "</f>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="E79" t="str">
+        <f>"'"&amp;B79&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="7"/>
+      <c r="F79" t="str">
+        <f t="shared" si="39"/>
         <v>'',</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="8"/>
+      <c r="G79" t="str">
+        <f t="shared" si="40"/>
         <v>''</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="9"/>
+      <c r="H79" t="str">
+        <f t="shared" si="41"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="E50" t="str">
-        <f>"'"&amp;B50&amp;"', "</f>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="E80" t="str">
+        <f>"'"&amp;B80&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="7"/>
+      <c r="F80" t="str">
+        <f t="shared" si="39"/>
         <v>'',</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="8"/>
+      <c r="G80" t="str">
+        <f t="shared" si="40"/>
         <v>''</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="9"/>
+      <c r="H80" t="str">
+        <f t="shared" si="41"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="E51" t="str">
-        <f>"'"&amp;B51&amp;"', "</f>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="E81" t="str">
+        <f>"'"&amp;B81&amp;"', "</f>
         <v xml:space="preserve">'', </v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="7"/>
+      <c r="F81" t="str">
+        <f t="shared" si="39"/>
         <v>'',</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="8"/>
+      <c r="G81" t="str">
+        <f t="shared" si="40"/>
         <v>''</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="9"/>
+      <c r="H81" t="str">
+        <f t="shared" si="41"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>

--- a/Tietokannat -kurssi cd_tietokanta/Datan syöttölauseet.xlsx
+++ b/Tietokannat -kurssi cd_tietokanta/Datan syöttölauseet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
   <si>
     <t>Henkilo</t>
   </si>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,22 +1448,30 @@
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>1975</v>
+      </c>
       <c r="E19" t="str">
         <f>"'"&amp;B19&amp;"', "</f>
-        <v xml:space="preserve">'', </v>
+        <v xml:space="preserve">'Iron Maiden', </v>
       </c>
       <c r="F19" t="str">
         <f xml:space="preserve"> "(select avain from maa where nimi = '" &amp; C19 &amp; "'), "</f>
-        <v xml:space="preserve">(select avain from maa where nimi = ''), </v>
+        <v xml:space="preserve">(select avain from maa where nimi = 'United States of America'), </v>
       </c>
       <c r="G19" t="str">
         <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; D19 &amp; "')"</f>
-        <v>(select avain from vuosi where vuosi = '')</v>
+        <v>(select avain from vuosi where vuosi = '1975')</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H22" si="4">$E$17 &amp; E19 &amp; F19 &amp; G19 &amp; ");"</f>
-        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( '', (select avain from maa where nimi = ''), (select avain from vuosi where vuosi = ''));</v>
+        <v>insert into esittaja (nimi, maa_avain, vuosi_avain) values( 'Iron Maiden', (select avain from maa where nimi = 'United States of America'), (select avain from vuosi where vuosi = '1975'));</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1588,11 +1596,11 @@
         <v xml:space="preserve">'204', </v>
       </c>
       <c r="J25" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D25 &amp; "'), "</f>
+        <f t="shared" ref="J25:J36" si="6" xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D25 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K25" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E25 &amp; "')"</f>
+        <f t="shared" ref="K25:K36" si="7" xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E25 &amp; "')"</f>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L25" t="str">
@@ -1636,23 +1644,23 @@
         <v xml:space="preserve">'218', </v>
       </c>
       <c r="J26" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D26 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K26" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E26 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L26" t="str">
-        <f>",'"&amp;F26&amp;"'"</f>
+        <f t="shared" ref="L26:L36" si="8">",'"&amp;F26&amp;"'"</f>
         <v>,''</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26:M29" si="6">",'"&amp;G26&amp;"'"</f>
+        <f t="shared" ref="M26:M29" si="9">",'"&amp;G26&amp;"'"</f>
         <v>,'2'</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ref="N26:N29" si="7">$H$24&amp; H26 &amp; I26 &amp; J26 &amp; K26 &amp; L26 &amp; M26 &amp; ");"</f>
+        <f t="shared" ref="N26:N29" si="10">$H$24&amp; H26 &amp; I26 &amp; J26 &amp; K26 &amp; L26 &amp; M26 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'From Here to Eternity', '218', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','2');</v>
       </c>
     </row>
@@ -1684,23 +1692,23 @@
         <v xml:space="preserve">'416', </v>
       </c>
       <c r="J27" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D27 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K27" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E27 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L27" t="str">
-        <f>",'"&amp;F27&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>,'3'</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Afraid to Shoot Strangers', '416', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','3');</v>
       </c>
     </row>
@@ -1732,23 +1740,23 @@
         <v xml:space="preserve">'335', </v>
       </c>
       <c r="J28" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D28 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K28" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E28 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L28" t="str">
-        <f>",'"&amp;F28&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>,'4'</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Fear Is the Key', '335', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','4');</v>
       </c>
     </row>
@@ -1780,23 +1788,23 @@
         <v xml:space="preserve">'280', </v>
       </c>
       <c r="J29" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D29 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K29" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E29 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L29" t="str">
-        <f>",'"&amp;F29&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>,'5'</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Childhood's End', '280', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','5');</v>
       </c>
     </row>
@@ -1820,31 +1828,31 @@
         <v>6</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H30" si="8">"'"&amp;B30&amp;"', "</f>
+        <f t="shared" ref="H30" si="11">"'"&amp;B30&amp;"', "</f>
         <v xml:space="preserve">'Wasting Love', </v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" ref="I30" si="9">"'"&amp;C30&amp;"', "</f>
+        <f t="shared" ref="I30" si="12">"'"&amp;C30&amp;"', "</f>
         <v xml:space="preserve">'350', </v>
       </c>
       <c r="J30" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D30 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K30" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E30 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L30" t="str">
-        <f>",'"&amp;F30&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ref="M30" si="10">",'"&amp;G30&amp;"'"</f>
+        <f t="shared" ref="M30" si="13">",'"&amp;G30&amp;"'"</f>
         <v>,'6'</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" ref="N30" si="11">$H$24&amp; H30 &amp; I30 &amp; J30 &amp; K30 &amp; L30 &amp; M30 &amp; ");"</f>
+        <f t="shared" ref="N30" si="14">$H$24&amp; H30 &amp; I30 &amp; J30 &amp; K30 &amp; L30 &amp; M30 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Wasting Love', '350', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','6');</v>
       </c>
     </row>
@@ -1868,31 +1876,31 @@
         <v>7</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:H32" si="12">"'"&amp;B31&amp;"', "</f>
+        <f t="shared" ref="H31:H32" si="15">"'"&amp;B31&amp;"', "</f>
         <v xml:space="preserve">'The Fugitive', </v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I32" si="13">"'"&amp;C31&amp;"', "</f>
+        <f t="shared" ref="I31:I32" si="16">"'"&amp;C31&amp;"', "</f>
         <v xml:space="preserve">'294', </v>
       </c>
       <c r="J31" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D31 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K31" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E31 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L31" t="str">
-        <f>",'"&amp;F31&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ref="M31:M32" si="14">",'"&amp;G31&amp;"'"</f>
+        <f t="shared" ref="M31:M32" si="17">",'"&amp;G31&amp;"'"</f>
         <v>,'7'</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ref="N31:N32" si="15">$H$24&amp; H31 &amp; I31 &amp; J31 &amp; K31 &amp; L31 &amp; M31 &amp; ");"</f>
+        <f t="shared" ref="N31:N32" si="18">$H$24&amp; H31 &amp; I31 &amp; J31 &amp; K31 &amp; L31 &amp; M31 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'The Fugitive', '294', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','7');</v>
       </c>
     </row>
@@ -1916,31 +1924,31 @@
         <v>8</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">'Chains of Misery', </v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">'217', </v>
       </c>
       <c r="J32" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D32 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K32" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E32 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L32" t="str">
-        <f>",'"&amp;F32&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>,'8'</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Chains of Misery', '217', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','8');</v>
       </c>
     </row>
@@ -1964,31 +1972,31 @@
         <v>9</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33" si="16">"'"&amp;B33&amp;"', "</f>
+        <f t="shared" ref="H33" si="19">"'"&amp;B33&amp;"', "</f>
         <v xml:space="preserve">'The Apparition', </v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33" si="17">"'"&amp;C33&amp;"', "</f>
+        <f t="shared" ref="I33" si="20">"'"&amp;C33&amp;"', "</f>
         <v xml:space="preserve">'234', </v>
       </c>
       <c r="J33" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D33 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K33" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E33 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L33" t="str">
-        <f>",'"&amp;F33&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ref="M33" si="18">",'"&amp;G33&amp;"'"</f>
+        <f t="shared" ref="M33" si="21">",'"&amp;G33&amp;"'"</f>
         <v>,'9'</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" ref="N33" si="19">$H$24&amp; H33 &amp; I33 &amp; J33 &amp; K33 &amp; L33 &amp; M33 &amp; ");"</f>
+        <f t="shared" ref="N33" si="22">$H$24&amp; H33 &amp; I33 &amp; J33 &amp; K33 &amp; L33 &amp; M33 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'The Apparition', '234', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','9');</v>
       </c>
     </row>
@@ -2012,31 +2020,31 @@
         <v>10</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34" si="20">"'"&amp;B34&amp;"', "</f>
+        <f t="shared" ref="H34" si="23">"'"&amp;B34&amp;"', "</f>
         <v xml:space="preserve">'Judas Be My Guide', </v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ref="I34" si="21">"'"&amp;C34&amp;"', "</f>
+        <f t="shared" ref="I34" si="24">"'"&amp;C34&amp;"', "</f>
         <v xml:space="preserve">'188', </v>
       </c>
       <c r="J34" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D34 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K34" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E34 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L34" t="str">
-        <f>",'"&amp;F34&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34" si="22">",'"&amp;G34&amp;"'"</f>
+        <f t="shared" ref="M34" si="25">",'"&amp;G34&amp;"'"</f>
         <v>,'10'</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34:N36" si="23">$H$24&amp; H34 &amp; I34 &amp; J34 &amp; K34 &amp; L34 &amp; M34 &amp; ");"</f>
+        <f t="shared" ref="N34:N36" si="26">$H$24&amp; H34 &amp; I34 &amp; J34 &amp; K34 &amp; L34 &amp; M34 &amp; ");"</f>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Judas Be My Guide', '188', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','10');</v>
       </c>
     </row>
@@ -2060,31 +2068,31 @@
         <v>11</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H36" si="24">"'"&amp;B35&amp;"', "</f>
+        <f t="shared" ref="H35:H36" si="27">"'"&amp;B35&amp;"', "</f>
         <v xml:space="preserve">'Weekend Warrior', </v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" ref="I35:I36" si="25">"'"&amp;C35&amp;"', "</f>
+        <f t="shared" ref="I35:I36" si="28">"'"&amp;C35&amp;"', "</f>
         <v xml:space="preserve">'339', </v>
       </c>
       <c r="J35" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D35 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K35" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E35 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L35" t="str">
-        <f>",'"&amp;F35&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ref="M35:M36" si="26">",'"&amp;G35&amp;"'"</f>
+        <f t="shared" ref="M35:M36" si="29">",'"&amp;G35&amp;"'"</f>
         <v>,'11'</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Weekend Warrior', '339', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','11');</v>
       </c>
     </row>
@@ -2108,31 +2116,31 @@
         <v>12</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">'Fear of the Dark', </v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">'438', </v>
       </c>
       <c r="J36" t="str">
-        <f xml:space="preserve"> "(select avain from esittaja where nimi = '" &amp; D36 &amp; "'), "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">(select avain from esittaja where nimi = 'Iron Maiden'), </v>
       </c>
       <c r="K36" t="str">
-        <f xml:space="preserve"> "(select avain from vuosi where vuosi = '" &amp; E36 &amp; "')"</f>
+        <f t="shared" si="7"/>
         <v>(select avain from vuosi where vuosi = '1992')</v>
       </c>
       <c r="L36" t="str">
-        <f>",'"&amp;F36&amp;"'"</f>
+        <f t="shared" si="8"/>
         <v>,''</v>
       </c>
       <c r="M36" t="str">
+        <f t="shared" si="29"/>
+        <v>,'12'</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="26"/>
-        <v>,'12'</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="23"/>
         <v>insert into kappale (nimi, kesto, esittaja_avain, vuosi_avain, tubepath, numero) values( 'Fear of the Dark', '438', (select avain from esittaja where nimi = 'Iron Maiden'), (select avain from vuosi where vuosi = '1992'),'','12');</v>
       </c>
     </row>
@@ -2258,7 +2266,7 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C46" t="str">
-        <f>""&amp;B25&amp;""</f>
+        <f t="shared" ref="C46:C57" si="30">""&amp;B25&amp;""</f>
         <v>Be Quick or Be Dead</v>
       </c>
       <c r="D46" t="str">
@@ -2270,7 +2278,7 @@
         <v>(select avain from kappale where nimi = 'Be Quick or Be Dead')</v>
       </c>
       <c r="F46" t="str">
-        <f>$D$45&amp; D46 &amp; E46  &amp; ");"</f>
+        <f t="shared" ref="F46:F57" si="31">$D$45&amp; D46 &amp; E46  &amp; ");"</f>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Be Quick or Be Dead'));</v>
       </c>
     </row>
@@ -2283,7 +2291,7 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C47" t="str">
-        <f>""&amp;B26&amp;""</f>
+        <f t="shared" si="30"/>
         <v>From Here to Eternity</v>
       </c>
       <c r="D47" t="str">
@@ -2295,7 +2303,7 @@
         <v>(select avain from kappale where nimi = 'From Here to Eternity')</v>
       </c>
       <c r="F47" t="str">
-        <f>$D$45&amp; D47 &amp; E47  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'From Here to Eternity'));</v>
       </c>
     </row>
@@ -2308,19 +2316,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C48" t="str">
-        <f>""&amp;B27&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Afraid to Shoot Strangers</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:D55" si="27" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B48 &amp; "'), "</f>
+        <f t="shared" ref="D48:D55" si="32" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B48 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ref="E48:E55" si="28" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C48 &amp; "')"</f>
+        <f t="shared" ref="E48:E55" si="33" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C48 &amp; "')"</f>
         <v>(select avain from kappale where nimi = 'Afraid to Shoot Strangers')</v>
       </c>
       <c r="F48" t="str">
-        <f>$D$45&amp; D48 &amp; E48  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Afraid to Shoot Strangers'));</v>
       </c>
     </row>
@@ -2333,19 +2341,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C49" t="str">
-        <f>""&amp;B28&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Fear Is the Key</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'Fear Is the Key')</v>
       </c>
       <c r="F49" t="str">
-        <f>$D$45&amp; D49 &amp; E49  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Fear Is the Key'));</v>
       </c>
     </row>
@@ -2358,19 +2366,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C50" t="str">
-        <f>""&amp;B29&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Childhood's End</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'Childhood's End')</v>
       </c>
       <c r="F50" t="str">
-        <f>$D$45&amp; D50 &amp; E50  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Childhood's End'));</v>
       </c>
     </row>
@@ -2383,19 +2391,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C51" t="str">
-        <f>""&amp;B30&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Wasting Love</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'Wasting Love')</v>
       </c>
       <c r="F51" t="str">
-        <f>$D$45&amp; D51 &amp; E51  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Wasting Love'));</v>
       </c>
     </row>
@@ -2408,19 +2416,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C52" t="str">
-        <f>""&amp;B31&amp;""</f>
+        <f t="shared" si="30"/>
         <v>The Fugitive</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'The Fugitive')</v>
       </c>
       <c r="F52" t="str">
-        <f>$D$45&amp; D52 &amp; E52  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'The Fugitive'));</v>
       </c>
     </row>
@@ -2433,19 +2441,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C53" t="str">
-        <f>""&amp;B32&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Chains of Misery</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'Chains of Misery')</v>
       </c>
       <c r="F53" t="str">
-        <f>$D$45&amp; D53 &amp; E53  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Chains of Misery'));</v>
       </c>
     </row>
@@ -2458,19 +2466,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C54" t="str">
-        <f>""&amp;B33&amp;""</f>
+        <f t="shared" si="30"/>
         <v>The Apparition</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'The Apparition')</v>
       </c>
       <c r="F54" t="str">
-        <f>$D$45&amp; D54 &amp; E54  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'The Apparition'));</v>
       </c>
     </row>
@@ -2483,19 +2491,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C55" t="str">
-        <f>""&amp;B34&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Judas Be My Guide</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>(select avain from kappale where nimi = 'Judas Be My Guide')</v>
       </c>
       <c r="F55" t="str">
-        <f>$D$45&amp; D55 &amp; E55  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Judas Be My Guide'));</v>
       </c>
     </row>
@@ -2508,19 +2516,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C56" t="str">
-        <f>""&amp;B35&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Weekend Warrior</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56" si="29" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B56 &amp; "'), "</f>
+        <f t="shared" ref="D56" si="34" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B56 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ref="E56" si="30" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C56 &amp; "')"</f>
+        <f t="shared" ref="E56" si="35" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C56 &amp; "')"</f>
         <v>(select avain from kappale where nimi = 'Weekend Warrior')</v>
       </c>
       <c r="F56" t="str">
-        <f>$D$45&amp; D56 &amp; E56  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Weekend Warrior'));</v>
       </c>
     </row>
@@ -2533,19 +2541,19 @@
         <v>Fear of The Dark</v>
       </c>
       <c r="C57" t="str">
-        <f>""&amp;B36&amp;""</f>
+        <f t="shared" si="30"/>
         <v>Fear of the Dark</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57" si="31" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B57 &amp; "'), "</f>
+        <f t="shared" ref="D57" si="36" xml:space="preserve"> "(select avain from cd where nimi = '" &amp; B57 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from cd where nimi = 'Fear of The Dark'), </v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ref="E57" si="32" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C57 &amp; "')"</f>
+        <f t="shared" ref="E57" si="37" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; C57 &amp; "')"</f>
         <v>(select avain from kappale where nimi = 'Fear of the Dark')</v>
       </c>
       <c r="F57" t="str">
-        <f>$D$45&amp; D57 &amp; E57  &amp; ");"</f>
+        <f t="shared" si="31"/>
         <v>insert into cd_kappale (cd_avain, kappale_avain) values( (select avain from cd where nimi = 'Fear of The Dark'), (select avain from kappale where nimi = 'Fear of the Dark'));</v>
       </c>
     </row>
@@ -2570,7 +2578,7 @@
         <v>70</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f>""&amp;B25&amp;""</f>
+        <f t="shared" ref="B60:B71" si="38">""&amp;B25&amp;""</f>
         <v>Be Quick or Be Dead</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -2585,7 +2593,7 @@
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F60" t="str">
-        <f>$D$59&amp; D60 &amp; E60 &amp; ");"</f>
+        <f t="shared" ref="F60:F71" si="39">$D$59&amp; D60 &amp; E60 &amp; ");"</f>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Be Quick or Be Dead'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2594,22 +2602,22 @@
         <v>70</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f>""&amp;B26&amp;""</f>
+        <f t="shared" si="38"/>
         <v>From Here to Eternity</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" ref="D61:D69" si="33" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B61 &amp; "'), "</f>
+        <f t="shared" ref="D61:D69" si="40" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B61 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from kappale where nimi = 'From Here to Eternity'), </v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" ref="E61:E69" si="34" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C61 &amp; "')"</f>
+        <f t="shared" ref="E61:E69" si="41" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C61 &amp; "')"</f>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F61" t="str">
-        <f>$D$59&amp; D61 &amp; E61 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'From Here to Eternity'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2618,22 +2626,22 @@
         <v>70</v>
       </c>
       <c r="B62" s="3" t="str">
-        <f>""&amp;B27&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Afraid to Shoot Strangers</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Afraid to Shoot Strangers'), </v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F62" t="str">
-        <f>$D$59&amp; D62 &amp; E62 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Afraid to Shoot Strangers'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2642,22 +2650,22 @@
         <v>70</v>
       </c>
       <c r="B63" s="3" t="str">
-        <f>""&amp;B28&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Fear Is the Key</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Fear Is the Key'), </v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F63" t="str">
-        <f>$D$59&amp; D63 &amp; E63 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Fear Is the Key'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2666,22 +2674,22 @@
         <v>70</v>
       </c>
       <c r="B64" s="3" t="str">
-        <f>""&amp;B29&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Childhood's End</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Childhood's End'), </v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F64" t="str">
-        <f>$D$59&amp; D64 &amp; E64 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Childhood's End'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2690,22 +2698,22 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="str">
-        <f>""&amp;B30&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Wasting Love</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Wasting Love'), </v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F65" t="str">
-        <f>$D$59&amp; D65 &amp; E65 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Wasting Love'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2714,22 +2722,22 @@
         <v>70</v>
       </c>
       <c r="B66" s="3" t="str">
-        <f>""&amp;B31&amp;""</f>
+        <f t="shared" si="38"/>
         <v>The Fugitive</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'The Fugitive'), </v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F66" t="str">
-        <f>$D$59&amp; D66 &amp; E66 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Fugitive'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2738,22 +2746,22 @@
         <v>70</v>
       </c>
       <c r="B67" s="3" t="str">
-        <f>""&amp;B32&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Chains of Misery</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Chains of Misery'), </v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F67" t="str">
-        <f>$D$59&amp; D67 &amp; E67 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Chains of Misery'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2762,22 +2770,22 @@
         <v>70</v>
       </c>
       <c r="B68" s="3" t="str">
-        <f>""&amp;B33&amp;""</f>
+        <f t="shared" si="38"/>
         <v>The Apparition</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'The Apparition'), </v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F68" t="str">
-        <f>$D$59&amp; D68 &amp; E68 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'The Apparition'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2786,22 +2794,22 @@
         <v>70</v>
       </c>
       <c r="B69" s="3" t="str">
-        <f>""&amp;B34&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Judas Be My Guide</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Judas Be My Guide'), </v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F69" t="str">
-        <f>$D$59&amp; D69 &amp; E69 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Judas Be My Guide'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2810,22 +2818,22 @@
         <v>70</v>
       </c>
       <c r="B70" s="3" t="str">
-        <f>""&amp;B35&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Weekend Warrior</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70" si="35" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B70 &amp; "'), "</f>
+        <f t="shared" ref="D70" si="42" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B70 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Weekend Warrior'), </v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ref="E70" si="36" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C70 &amp; "')"</f>
+        <f t="shared" ref="E70" si="43" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C70 &amp; "')"</f>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F70" t="str">
-        <f>$D$59&amp; D70 &amp; E70 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Weekend Warrior'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2834,22 +2842,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="str">
-        <f>""&amp;B36&amp;""</f>
+        <f t="shared" si="38"/>
         <v>Fear of the Dark</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71" si="37" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B71 &amp; "'), "</f>
+        <f t="shared" ref="D71" si="44" xml:space="preserve"> "(select avain from kappale where nimi = '" &amp; B71 &amp; "'), "</f>
         <v xml:space="preserve">(select avain from kappale where nimi = 'Fear of the Dark'), </v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ref="E71" si="38" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C71 &amp; "')"</f>
+        <f t="shared" ref="E71" si="45" xml:space="preserve"> "(select avain from genre where nimi = '" &amp; C71 &amp; "')"</f>
         <v>(select avain from genre where nimi = 'Heavy Metal')</v>
       </c>
       <c r="F71" t="str">
-        <f>$D$59&amp; D71 &amp; E71 &amp; ");"</f>
+        <f t="shared" si="39"/>
         <v>insert into kappale_genre (kappale_avain, genre_avain) values( (select avain from kappale where nimi = 'Fear of the Dark'), (select avain from genre where nimi = 'Heavy Metal'));</v>
       </c>
     </row>
@@ -2953,15 +2961,15 @@
         <v xml:space="preserve">'', </v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" ref="F78:F81" si="39">"'"&amp;C78&amp;"',"</f>
+        <f t="shared" ref="F78:F81" si="46">"'"&amp;C78&amp;"',"</f>
         <v>'',</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" ref="G78:G81" si="40">"'"&amp;D78&amp;"'"</f>
+        <f t="shared" ref="G78:G81" si="47">"'"&amp;D78&amp;"'"</f>
         <v>''</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" ref="H78:H81" si="41">$E$76 &amp; E78 &amp; F78 &amp; G78 &amp; ");"</f>
+        <f t="shared" ref="H78:H81" si="48">$E$76 &amp; E78 &amp; F78 &amp; G78 &amp; ");"</f>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>
@@ -2975,15 +2983,15 @@
         <v xml:space="preserve">'', </v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>'',</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>''</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
       <c r="I79" s="1"/>
@@ -2998,15 +3006,15 @@
         <v xml:space="preserve">'', </v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>'',</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>''</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>
@@ -3020,15 +3028,15 @@
         <v xml:space="preserve">'', </v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>'',</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>''</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>insert into user (tunnus, salasana, tyyppi) values( '', '','');</v>
       </c>
     </row>
